--- a/韩天宇.xlsx
+++ b/韩天宇.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hty\hty\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1395" windowWidth="24780" windowHeight="13575" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1455" yWindow="1395" windowWidth="24780" windowHeight="13575" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="12月" sheetId="8" r:id="rId4"/>
     <sheet name="1月" sheetId="9" r:id="rId5"/>
     <sheet name="2月" sheetId="10" r:id="rId6"/>
+    <sheet name="3月" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'9月'!$A$1:$J$18</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="87">
   <si>
     <t>技术部2017年    9     月计划执行考核表</t>
   </si>
@@ -367,14 +368,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>技术部2017年    2     月计划执行考核表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 被考核人：   韩天宇           部门： 技术部                     岗位： H5工程师                   计划时间：2017年      2月      1   日~2017年     2   月   28     日                考核时间：2017年          月         日~2017年        月        日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>koa.js的学习与运用</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -390,6 +383,48 @@
   </si>
   <si>
     <t>市井，节日，阿拉，昆虫，极地，称谓等专题上线包制作及适配修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部2018年    3     月计划执行考核表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 被考核人：   韩天宇           部门： 技术部                     岗位： H5工程师                   计划时间：2018年      3月      1   日~2017年     3   月   31     日                考核时间：2018年          月         日~2018年        月        日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部2018年    2     月计划执行考核表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 被考核人：   韩天宇           部门： 技术部                     岗位： H5工程师                   计划时间：2018年      2月      1   日~2018年     2   月   28     日                考核时间：2018年          月         日~2018年        月        日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘本后台修改完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>极地、节日专题修改，专题框架制作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄堂游戏，数学游戏</t>
+    <rPh sb="0" eb="1">
+      <t>can'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'l'hou'tbao'bkai'f</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lufylegend.js的学习与运用</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -767,6 +802,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1301,41 +1339,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
       <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1382,7 +1420,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3">
@@ -1416,7 +1454,7 @@
       <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1524,7 +1562,7 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="3">
@@ -1536,19 +1574,19 @@
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="48">
+      <c r="G8" s="49">
         <v>0.05</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="48"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="6"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1558,17 +1596,17 @@
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="49"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="5"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="13"/>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -1578,17 +1616,17 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="5"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="13"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -1598,17 +1636,17 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="5"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="13"/>
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -1618,10 +1656,10 @@
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="49"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="5"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="52"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="5"/>
@@ -1644,7 +1682,7 @@
       <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1656,21 +1694,21 @@
       <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:15" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="61" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="14">
         <f>SUM(L3:L13)*100</f>
         <v>100</v>
@@ -1684,82 +1722,82 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="17" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="64" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="67">
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68">
         <f>(L14*0.3+M14*0.7)</f>
         <v>93</v>
       </c>
-      <c r="M15" s="68"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="16">
         <f>IF(L15&lt;50,0,IF(L15&lt;60,0.6,IF(L15&lt;70,0.7,IF(L15&lt;80,0.8,IF(L15&lt;90,0.9,1)))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="17" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1803,40 +1841,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
     </row>
     <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1883,7 +1921,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3">
@@ -1917,7 +1955,7 @@
       <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2025,7 +2063,7 @@
       <c r="N7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="3">
@@ -2037,19 +2075,19 @@
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="48">
+      <c r="G8" s="49">
         <v>0.05</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="48"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="6"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -2059,17 +2097,17 @@
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="49"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="5"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="13"/>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -2079,17 +2117,17 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="5"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="13"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -2099,17 +2137,17 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="5"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="13"/>
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -2119,10 +2157,10 @@
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="49"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="5"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="52"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="5"/>
@@ -2145,7 +2183,7 @@
       <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="5" t="s">
         <v>43</v>
       </c>
@@ -2157,21 +2195,21 @@
       <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="61" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="14">
         <f>SUM(L3:L13)*100</f>
         <v>100</v>
@@ -2185,82 +2223,82 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="64" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="67">
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68">
         <f>(L14*0.3+M14*0.7)</f>
         <v>93</v>
       </c>
-      <c r="M15" s="68"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="16">
         <f>IF(L15&lt;50,0,IF(L15&lt;60,0.6,IF(L15&lt;70,0.7,IF(L15&lt;80,0.8,IF(L15&lt;90,0.9,1)))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2305,40 +2343,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
@@ -2385,7 +2423,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="25">
@@ -2427,7 +2465,7 @@
       <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -2535,7 +2573,7 @@
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="85" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="25">
@@ -2547,19 +2585,19 @@
       <c r="D8" s="24"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="87">
+      <c r="G8" s="88">
         <v>0.05</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="87"/>
+      <c r="J8" s="88"/>
       <c r="K8" s="27"/>
       <c r="L8" s="29"/>
       <c r="M8" s="28"/>
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="85"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="25">
         <v>6</v>
       </c>
@@ -2569,17 +2607,17 @@
       <c r="D9" s="24"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="88"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="23"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="90"/>
+      <c r="J9" s="91"/>
       <c r="K9" s="27"/>
       <c r="L9" s="29"/>
       <c r="M9" s="28"/>
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="25">
         <v>7</v>
       </c>
@@ -2589,17 +2627,17 @@
       <c r="D10" s="24"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="88"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="23"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="90"/>
+      <c r="J10" s="91"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="28"/>
       <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="85"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="25">
         <v>8</v>
       </c>
@@ -2609,17 +2647,17 @@
       <c r="D11" s="24"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="88"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="23"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="28"/>
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="25">
         <v>9</v>
       </c>
@@ -2629,10 +2667,10 @@
       <c r="D12" s="24"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="23"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="91"/>
+      <c r="J12" s="92"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="23"/>
@@ -2655,7 +2693,7 @@
       <c r="F13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="89"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="23" t="s">
         <v>43</v>
       </c>
@@ -2667,21 +2705,21 @@
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="71" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="14">
         <f>SUM(L3:L13)</f>
         <v>93</v>
@@ -2695,82 +2733,82 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="74" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="67">
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="68">
         <f>(L14*0.3+M14*0.7)</f>
         <v>90.899999999999991</v>
       </c>
-      <c r="M15" s="68"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="16">
         <f>IF(L15&lt;50,0,IF(L15&lt;60,0.6,IF(L15&lt;70,0.7,IF(L15&lt;80,0.8,IF(L15&lt;90,0.9,1)))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="80"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2812,40 +2850,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
@@ -2892,7 +2930,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="25">
@@ -2928,7 +2966,7 @@
       <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -3024,7 +3062,7 @@
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="85" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="25">
@@ -3036,19 +3074,19 @@
       <c r="D8" s="24"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="87">
+      <c r="G8" s="88">
         <v>0.05</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="87"/>
+      <c r="J8" s="88"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="85"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="25">
         <v>6</v>
       </c>
@@ -3058,17 +3096,17 @@
       <c r="D9" s="24"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="88"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="23"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="90"/>
+      <c r="J9" s="91"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="28"/>
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="25">
         <v>7</v>
       </c>
@@ -3078,17 +3116,17 @@
       <c r="D10" s="24"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="88"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="23"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="90"/>
+      <c r="J10" s="91"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="28"/>
       <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="85"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="25">
         <v>8</v>
       </c>
@@ -3098,17 +3136,17 @@
       <c r="D11" s="24"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="88"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="23"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="28"/>
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="25">
         <v>9</v>
       </c>
@@ -3118,10 +3156,10 @@
       <c r="D12" s="24"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="23"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="91"/>
+      <c r="J12" s="92"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="23"/>
@@ -3144,7 +3182,7 @@
       <c r="F13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="89"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="23" t="s">
         <v>43</v>
       </c>
@@ -3156,21 +3194,21 @@
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="71" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="14">
         <f>SUM(L3:L13)*100</f>
         <v>0</v>
@@ -3184,82 +3222,82 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="74" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="67">
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="68">
         <f>(L14*0.3+M14*0.7)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="68"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="16">
         <f>IF(L15&lt;50,0,IF(L15&lt;60,0.6,IF(L15&lt;70,0.7,IF(L15&lt;80,0.8,IF(L15&lt;90,0.9,1)))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="80"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3298,40 +3336,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
@@ -3378,7 +3416,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="25">
@@ -3400,7 +3438,7 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="27">
         <v>0.4</v>
@@ -3414,7 +3452,7 @@
       <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -3468,7 +3506,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -3510,7 +3548,7 @@
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="85" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="25">
@@ -3522,19 +3560,19 @@
       <c r="D8" s="24"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="87">
+      <c r="G8" s="88">
         <v>0.05</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="87"/>
+      <c r="J8" s="88"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="85"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="25">
         <v>6</v>
       </c>
@@ -3544,17 +3582,17 @@
       <c r="D9" s="24"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="88"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="23"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="90"/>
+      <c r="J9" s="91"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="28"/>
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="25">
         <v>7</v>
       </c>
@@ -3564,17 +3602,17 @@
       <c r="D10" s="24"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="88"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="23"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="90"/>
+      <c r="J10" s="91"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="28"/>
       <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="85"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="25">
         <v>8</v>
       </c>
@@ -3584,17 +3622,17 @@
       <c r="D11" s="24"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="88"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="23"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="28"/>
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="25">
         <v>9</v>
       </c>
@@ -3604,10 +3642,10 @@
       <c r="D12" s="24"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="23"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="91"/>
+      <c r="J12" s="92"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="23"/>
@@ -3630,7 +3668,7 @@
       <c r="F13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="89"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="23" t="s">
         <v>43</v>
       </c>
@@ -3642,21 +3680,21 @@
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="71" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="14">
         <f>SUM(L3:L13)*100</f>
         <v>0</v>
@@ -3670,82 +3708,82 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="74" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="67">
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="68">
         <f>(L14*0.3+M14*0.7)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="68"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="16">
         <f>IF(L15&lt;50,0,IF(L15&lt;60,0.6,IF(L15&lt;70,0.7,IF(L15&lt;80,0.8,IF(L15&lt;90,0.9,1)))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="80"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3773,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3786,40 +3824,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
+      <c r="A1" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
+      <c r="A2" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
@@ -3866,7 +3904,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="25">
@@ -3888,19 +3926,21 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="27">
         <v>0.4</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="K4" s="27"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -3927,7 +3967,7 @@
       <c r="M5" s="29"/>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="57" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
         <v>23</v>
       </c>
@@ -3953,13 +3993,15 @@
       <c r="I6" s="27">
         <v>0.5</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -3980,19 +4022,21 @@
         <v>0.05</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7" s="27">
         <v>0.1</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="85" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="25">
@@ -4004,19 +4048,19 @@
       <c r="D8" s="24"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="87">
+      <c r="G8" s="88">
         <v>0.05</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="87"/>
+      <c r="J8" s="88"/>
       <c r="K8" s="27"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="85"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="25">
         <v>6</v>
       </c>
@@ -4026,17 +4070,17 @@
       <c r="D9" s="24"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="88"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="23"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="90"/>
+      <c r="J9" s="91"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="28"/>
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="25">
         <v>7</v>
       </c>
@@ -4046,17 +4090,17 @@
       <c r="D10" s="24"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="88"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="23"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="90"/>
+      <c r="J10" s="91"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="28"/>
       <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="85"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="25">
         <v>8</v>
       </c>
@@ -4066,17 +4110,17 @@
       <c r="D11" s="24"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="88"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="23"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="90"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="28"/>
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="25">
         <v>9</v>
       </c>
@@ -4086,16 +4130,16 @@
       <c r="D12" s="24"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="23"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="91"/>
+      <c r="J12" s="92"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="23"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
@@ -4112,7 +4156,7 @@
       <c r="F13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="89"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="23" t="s">
         <v>43</v>
       </c>
@@ -4124,21 +4168,21 @@
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="71" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="14">
         <f>SUM(L3:L13)*100</f>
         <v>0</v>
@@ -4152,82 +4196,82 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="74" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="67">
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="68">
         <f>(L14*0.3+M14*0.7)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="68"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="16">
         <f>IF(L15&lt;50,0,IF(L15&lt;60,0.6,IF(L15&lt;70,0.7,IF(L15&lt;80,0.8,IF(L15&lt;90,0.9,1)))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="80"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4250,4 +4294,491 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+    </row>
+    <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="84"/>
+      <c r="B5" s="25">
+        <v>2</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="25">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="25">
+        <v>4</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="25">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="86"/>
+      <c r="B9" s="25">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="86"/>
+      <c r="B10" s="25">
+        <v>7</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="86"/>
+      <c r="B11" s="25">
+        <v>8</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="87"/>
+      <c r="B12" s="25">
+        <v>9</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="25">
+        <v>10</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="14">
+        <f>SUM(L3:L13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <f>SUM(M3:M13)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="68">
+        <f>(L14*0.3+M14*0.7)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="69"/>
+      <c r="N15" s="16">
+        <f>IF(L15&lt;50,0,IF(L15&lt;60,0.6,IF(L15&lt;70,0.7,IF(L15&lt;80,0.8,IF(L15&lt;90,0.9,1)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="80"/>
+    </row>
+    <row r="17" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="A17:N17"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:N16"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>